--- a/01-beginner/063-background.xlsx
+++ b/01-beginner/063-background.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="background" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="shape 2" sheetId="4" r:id="rId4"/>
     <sheet name="header" sheetId="5" r:id="rId5"/>
     <sheet name="live" sheetId="6" r:id="rId6"/>
+    <sheet name="live 2" sheetId="7" r:id="rId7"/>
+    <sheet name="live 3" sheetId="8" r:id="rId8"/>
+    <sheet name="live 4" sheetId="9" r:id="rId9"/>
+    <sheet name="live 5" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,16 +91,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238132</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>58108</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419106</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -123,7 +132,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2409825" y="1614488"/>
+          <a:off x="1295399" y="923925"/>
           <a:ext cx="3657607" cy="2606045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -173,7 +182,7 @@
         </a:prstGeom>
         <a:blipFill dpi="0" rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:alphaModFix amt="64000"/>
+            <a:alphaModFix amt="80000"/>
             <a:extLst>
               <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
                 <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
@@ -277,6 +286,93 @@
             <a:schemeClr val="accent1">
               <a:shade val="50000"/>
               <a:alpha val="36000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3616EBC9-7E7D-4E28-B56B-4B120385F46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1681163" y="485775"/>
+          <a:ext cx="9182100" cy="5715000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:alphaModFix amt="9000"/>
+            <a:extLst>
+              <a:ext uri="{837473B0-CC2E-450A-ABE3-18F120FF3D39}">
+                <a1611:picAttrSrcUrl xmlns:a1611="http://schemas.microsoft.com/office/drawing/2016/11/main" r:id="rId2"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+              <a:alpha val="29000"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -613,7 +709,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -622,6 +718,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <picture r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -632,7 +755,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
@@ -649,7 +774,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -701,10 +826,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>